--- a/src/main/TestData/TestQQEmail-keyworkd.xlsx
+++ b/src/main/TestData/TestQQEmail-keyworkd.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="5715" windowWidth="12765" xWindow="0" yWindow="105"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="NewAddedContactPerson" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="NewAddedContactPerson" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>测试用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xuminhui2016..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +106,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试执行失败</t>
-  </si>
-  <si>
     <t>执行成功</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -170,26 +167,26 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -198,10 +195,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -357,7 +354,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -366,13 +363,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -382,7 +379,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -391,7 +388,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,12 +407,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -446,7 +443,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -465,7 +462,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -478,28 +475,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="24.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.25" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.25" collapsed="true"/>
-    <col min="8" max="10" bestFit="true" customWidth="true" width="16.25" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.25" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" width="24.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="16.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -529,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -540,37 +537,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5">
         <v>570549054</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G2">
         <v>78483943894</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="J2">
         <v>78483943894</v>
       </c>
       <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -578,37 +575,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
         <v>570549054</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>78483943895</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>78483943895</v>
       </c>
       <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -616,51 +613,51 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <v>570549054</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>78483943896</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>78483943896</v>
       </c>
       <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="I2"/>
-    <hyperlink r:id="rId3" ref="F3"/>
-    <hyperlink r:id="rId4" ref="I3"/>
-    <hyperlink r:id="rId5" ref="F4"/>
-    <hyperlink r:id="rId6" ref="I4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -673,7 +670,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -686,6 +683,6 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>